--- a/biology/Médecine/Surfaçage_radiculaire/Surfaçage_radiculaire.xlsx
+++ b/biology/Médecine/Surfaçage_radiculaire/Surfaçage_radiculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le surfaçage radiculaire est l'élimination du cément altéré et polissage des surfaces. Il faut retrouver une surface radiculaire biologiquement compatible avec une cicatrisation. Il permet l'élimination de dépôts sous gingivaux adhérents et désorganise le biofilm.
 Un surfaçage radiculaire bien fait permet de réduire le nombre d'interventions chirurgicales à faire en deuxième intention.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Les indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès qu'on est à un stade de parodontite.
 Surfaçage si dépôt de tartre apicalement au rebord marginal de la gencive libre et/ou que l'on a des profondeurs au sondage supérieures à 4 mm.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Place du surfaçage radiculaire dans le plan de traitement parodontal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la thérapeutique initiale, après un détartrage et la mise en place d'un bon contrôle de plaque.
 Le surfaçage est suivi d'une réévaluation parodontale (environ 3 mois) si on pense qu'il suffit pour guérir.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Technique de surfaçage radiculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous anesthésie locale à l'aide de curettes ou d'inserts ultrasoniques.
 Chaque curette présente deux extrémités travaillantes, leur longueur et l'angulation de leur col ainsi que de leurs  facettes abrasives varient en fonction de la dent et de la face de la dent à traiter.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Soins et recommandations post-opératoire et effets secondaires du surfaçage radiculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Brossage avec une brosse souple 12 ou 15/100e pendant 4-5 jours.
 Éviter de passer les brossettes pendant 4-5 jours.
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Surfa%C3%A7age_radiculaire</t>
+          <t>Surfaçage_radiculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Effets cliniques et limites du surfaçage radiculaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Entraine une régénération du parodonte profond qui se traduit par des signes cliniques à évaluer :
 réduction de la profondeur au sondage
@@ -662,7 +684,7 @@
 La profondeur des poches parodontales est une limite de l'efficacité de surfaçage radiculaire.
 Si on fait trop durer le traitement, l'efficacité est diminuée.
 Deux séances avec 48 heures d'intervalle dans l'idéal car cela permet d'éviter la recontamination d'un secteur à l'autre et d'y associer une antibiothérapie qui couvre totalement la période du surfaçage radiculaire.
-Dans les formes de parodontites agressives ou dans les sévères avancées, une antibiothérapie par voie générales peut-être associée pour améliorer les résultats cliniques[1].
+Dans les formes de parodontites agressives ou dans les sévères avancées, une antibiothérapie par voie générales peut-être associée pour améliorer les résultats cliniques.
 On commence l'antibiothérapie le jour du premier surfaçage.
 </t>
         </is>
